--- a/Documents/Logs.xlsx
+++ b/Documents/Logs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C41935A-854C-463F-B0DD-B6100A6F6AF1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -41,16 +40,22 @@
 - Test sensor temperature &amp; humidity AM2320: AM2320 has been broken and not return any data. So, i decided to buy SHT10 for replacing
 - Implement a library that used for parsing weather data string received from STC15</t>
   </si>
+  <si>
+    <t>Hao</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Code demo neural network ( calculator XOR) and complete document of neural network</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -58,7 +63,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -409,22 +414,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="21.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="124.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="2" width="21.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="124.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -438,7 +443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -452,15 +457,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>43272</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -468,7 +479,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -476,7 +487,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -484,7 +495,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -492,7 +503,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -500,7 +511,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -508,7 +519,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -516,7 +527,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -524,7 +535,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -532,7 +543,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -540,7 +551,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -548,7 +559,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -556,7 +567,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -564,7 +575,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -572,7 +583,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -580,7 +591,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -588,7 +599,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -596,7 +607,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -604,805 +615,805 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="6"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="6"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="6"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="6"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="6"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="6"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="6"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="6"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="6"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="6"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="6"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="6"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="6"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="6"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D137" s="6"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D139" s="6"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D140" s="6"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D141" s="6"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D145" s="6"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D147" s="6"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D153" s="6"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D158" s="6"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D159" s="6"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D160" s="6"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D161" s="6"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D162" s="6"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D163" s="6"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D164" s="6"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D165" s="6"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D166" s="6"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D167" s="6"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D168" s="6"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D169" s="6"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D170" s="6"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D171" s="6"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D172" s="6"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D173" s="6"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D174" s="6"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D175" s="6"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D176" s="6"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D177" s="6"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D178" s="6"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D179" s="6"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D180" s="6"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D181" s="6"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D182" s="6"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D183" s="6"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D184" s="6"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D185" s="6"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D186" s="6"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D187" s="6"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D188" s="6"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D189" s="6"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D190" s="6"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D191" s="6"/>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D192" s="6"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D193" s="6"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D194" s="6"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D195" s="6"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D196" s="6"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D197" s="6"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D198" s="6"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D199" s="6"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D200" s="6"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D201" s="6"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D202" s="6"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D203" s="6"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D204" s="6"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D205" s="6"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D206" s="6"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D207" s="6"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D208" s="6"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D209" s="6"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D210" s="6"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D211" s="6"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D212" s="6"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D213" s="6"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D214" s="6"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D215" s="6"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D216" s="6"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D217" s="6"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D218" s="6"/>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D219" s="6"/>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D220" s="6"/>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D221" s="6"/>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D222" s="6"/>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D223" s="6"/>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D224" s="6"/>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D225" s="6"/>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D226" s="6"/>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D227" s="6"/>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D228" s="6"/>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D229" s="6"/>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D230" s="6"/>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D231" s="6"/>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D232" s="6"/>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D233" s="6"/>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D234" s="6"/>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D235" s="6"/>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D236" s="6"/>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D237" s="6"/>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D238" s="6"/>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D239" s="6"/>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D240" s="6"/>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D241" s="6"/>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D242" s="6"/>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D243" s="6"/>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D244" s="6"/>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D245" s="6"/>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D246" s="6"/>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D247" s="6"/>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D248" s="6"/>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D249" s="6"/>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D250" s="7"/>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D251" s="7"/>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D252" s="7"/>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D253" s="7"/>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D254" s="7"/>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D255" s="7"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D256" s="7"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D257" s="7"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D258" s="7"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D259" s="7"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D260" s="7"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D261" s="7"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D262" s="7"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D263" s="7"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D264" s="7"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D265" s="7"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D266" s="7"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D267" s="7"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D268" s="7"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D269" s="7"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D270" s="7"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D271" s="7"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D272" s="7"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D273" s="7"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D274" s="7"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D275" s="7"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D276" s="7"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D277" s="7"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D278" s="7"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D279" s="7"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D280" s="7"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D281" s="7"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D282" s="7"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D283" s="7"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D284" s="7"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D285" s="7"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D286" s="7"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D287" s="7"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D288" s="7"/>
     </row>
   </sheetData>

--- a/Documents/Logs.xlsx
+++ b/Documents/Logs.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42777899-3A64-42AB-810C-8B99C31A1D8D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -46,16 +47,21 @@
   <si>
     <t xml:space="preserve"> - Code demo neural network ( calculator XOR) and complete document of neural network</t>
   </si>
+  <si>
+    <t>- Burn Arduino bootloader &amp; soldering Atmega328p on Node
+- Setup Raspberry Pi: install MongoDB (old version, version &gt; 3.0 not supported for Arm architeture)
+- Write Code that collect weather data on Raspberry. Still has some issues, cause MongoDB &amp; MongoDB driver is not fully supported on ARM architeture.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -63,7 +69,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -414,22 +420,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
-    <col min="2" max="2" width="21.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="124.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="21.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="124.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -443,7 +449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -457,7 +463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -471,15 +477,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>43273</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -487,7 +499,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -495,7 +507,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -503,7 +515,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -511,7 +523,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -519,7 +531,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -527,7 +539,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -535,7 +547,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -543,7 +555,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -551,7 +563,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -559,7 +571,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -567,7 +579,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -575,7 +587,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -583,7 +595,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -591,7 +603,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -599,7 +611,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -607,7 +619,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -615,805 +627,805 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="6"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="6"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="6"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="6"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="6"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="6"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="6"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="6"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="6"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="6"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="6"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="6"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="6"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="6"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D137" s="6"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D139" s="6"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D140" s="6"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D141" s="6"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D145" s="6"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D147" s="6"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D153" s="6"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D158" s="6"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D159" s="6"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D160" s="6"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D161" s="6"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D162" s="6"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D163" s="6"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D164" s="6"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D165" s="6"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D166" s="6"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D167" s="6"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D168" s="6"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D169" s="6"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D170" s="6"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D171" s="6"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D172" s="6"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D173" s="6"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D174" s="6"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D175" s="6"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D176" s="6"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D177" s="6"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D178" s="6"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D179" s="6"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D180" s="6"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D181" s="6"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D182" s="6"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D183" s="6"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D184" s="6"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D185" s="6"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D186" s="6"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D187" s="6"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D188" s="6"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D189" s="6"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D190" s="6"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D191" s="6"/>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D192" s="6"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D193" s="6"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D194" s="6"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D195" s="6"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D196" s="6"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D197" s="6"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D198" s="6"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D199" s="6"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D200" s="6"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D201" s="6"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D202" s="6"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D203" s="6"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D204" s="6"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D205" s="6"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D206" s="6"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D207" s="6"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D208" s="6"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D209" s="6"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D210" s="6"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D211" s="6"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D212" s="6"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D213" s="6"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D214" s="6"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D215" s="6"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D216" s="6"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D217" s="6"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D218" s="6"/>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D219" s="6"/>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D220" s="6"/>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D221" s="6"/>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D222" s="6"/>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D223" s="6"/>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D224" s="6"/>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D225" s="6"/>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D226" s="6"/>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D227" s="6"/>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D228" s="6"/>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D229" s="6"/>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D230" s="6"/>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D231" s="6"/>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D232" s="6"/>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D233" s="6"/>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D234" s="6"/>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D235" s="6"/>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D236" s="6"/>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D237" s="6"/>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D238" s="6"/>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D239" s="6"/>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D240" s="6"/>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D241" s="6"/>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D242" s="6"/>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D243" s="6"/>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D244" s="6"/>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D245" s="6"/>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D246" s="6"/>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D247" s="6"/>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D248" s="6"/>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D249" s="6"/>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D250" s="7"/>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D251" s="7"/>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D252" s="7"/>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D253" s="7"/>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D254" s="7"/>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D255" s="7"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D256" s="7"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D257" s="7"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D258" s="7"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D259" s="7"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D260" s="7"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D261" s="7"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D262" s="7"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D263" s="7"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D264" s="7"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D265" s="7"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D266" s="7"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D267" s="7"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D268" s="7"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D269" s="7"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D270" s="7"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D271" s="7"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D272" s="7"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D273" s="7"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D274" s="7"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D275" s="7"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D276" s="7"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D277" s="7"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D278" s="7"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D279" s="7"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D280" s="7"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D281" s="7"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D282" s="7"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D283" s="7"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D284" s="7"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D285" s="7"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D286" s="7"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D287" s="7"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D288" s="7"/>
     </row>
   </sheetData>

--- a/Documents/Logs.xlsx
+++ b/Documents/Logs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42777899-3A64-42AB-810C-8B99C31A1D8D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6885718-EB97-4289-B109-778DAE3D8648}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -51,6 +51,9 @@
     <t>- Burn Arduino bootloader &amp; soldering Atmega328p on Node
 - Setup Raspberry Pi: install MongoDB (old version, version &gt; 3.0 not supported for Arm architeture)
 - Write Code that collect weather data on Raspberry. Still has some issues, cause MongoDB &amp; MongoDB driver is not fully supported on ARM architeture.</t>
+  </si>
+  <si>
+    <t>- Update source code collected data on Raspberry to save to text file instead of saving to MongoDB</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -140,6 +143,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,7 +430,7 @@
   <dimension ref="A1:D288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,9 +501,15 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="3">
+        <v>43276</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">

--- a/Documents/Logs.xlsx
+++ b/Documents/Logs.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6885718-EB97-4289-B109-778DAE3D8648}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -55,16 +54,20 @@
   <si>
     <t>- Update source code collected data on Raspberry to save to text file instead of saving to MongoDB</t>
   </si>
+  <si>
+    <t>- Code demo multi layer neural network ( Complete )
+- Design model neural for KLTN ( not complete)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -72,7 +75,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -426,22 +429,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="21.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="124.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="2" width="21.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="124.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -455,7 +458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -469,7 +472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -483,7 +486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -497,7 +500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -511,15 +514,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <v>43277</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -527,7 +536,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -535,7 +544,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -543,7 +552,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -551,7 +560,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -559,7 +568,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -567,7 +576,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -575,7 +584,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -583,7 +592,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -591,7 +600,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -599,7 +608,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -607,7 +616,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -615,7 +624,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -623,7 +632,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -631,7 +640,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -639,805 +648,805 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="6"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="6"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="6"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="6"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="6"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="6"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="6"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="6"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="6"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="6"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="6"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="6"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="6"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="6"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D137" s="6"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D139" s="6"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D140" s="6"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D141" s="6"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D145" s="6"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D147" s="6"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D153" s="6"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D158" s="6"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D159" s="6"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D160" s="6"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D161" s="6"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D162" s="6"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D163" s="6"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D164" s="6"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D165" s="6"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D166" s="6"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D167" s="6"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D168" s="6"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D169" s="6"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D170" s="6"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D171" s="6"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D172" s="6"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D173" s="6"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D174" s="6"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D175" s="6"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D176" s="6"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D177" s="6"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D178" s="6"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D179" s="6"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D180" s="6"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D181" s="6"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D182" s="6"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D183" s="6"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D184" s="6"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D185" s="6"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D186" s="6"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D187" s="6"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D188" s="6"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D189" s="6"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D190" s="6"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D191" s="6"/>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D192" s="6"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D193" s="6"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D194" s="6"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D195" s="6"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D196" s="6"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D197" s="6"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D198" s="6"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D199" s="6"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D200" s="6"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D201" s="6"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D202" s="6"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D203" s="6"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D204" s="6"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D205" s="6"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D206" s="6"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D207" s="6"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D208" s="6"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D209" s="6"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D210" s="6"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D211" s="6"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D212" s="6"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D213" s="6"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D214" s="6"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D215" s="6"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D216" s="6"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D217" s="6"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D218" s="6"/>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D219" s="6"/>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D220" s="6"/>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D221" s="6"/>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D222" s="6"/>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D223" s="6"/>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D224" s="6"/>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D225" s="6"/>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D226" s="6"/>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D227" s="6"/>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D228" s="6"/>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D229" s="6"/>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D230" s="6"/>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D231" s="6"/>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D232" s="6"/>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D233" s="6"/>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D234" s="6"/>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D235" s="6"/>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D236" s="6"/>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D237" s="6"/>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D238" s="6"/>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D239" s="6"/>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D240" s="6"/>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D241" s="6"/>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D242" s="6"/>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D243" s="6"/>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D244" s="6"/>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D245" s="6"/>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D246" s="6"/>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D247" s="6"/>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D248" s="6"/>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D249" s="6"/>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D250" s="7"/>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D251" s="7"/>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D252" s="7"/>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D253" s="7"/>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D254" s="7"/>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D255" s="7"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D256" s="7"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D257" s="7"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D258" s="7"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D259" s="7"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D260" s="7"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D261" s="7"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D262" s="7"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D263" s="7"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D264" s="7"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D265" s="7"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D266" s="7"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D267" s="7"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D268" s="7"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D269" s="7"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D270" s="7"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D271" s="7"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D272" s="7"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D273" s="7"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D274" s="7"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D275" s="7"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D276" s="7"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D277" s="7"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D278" s="7"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D279" s="7"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D280" s="7"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D281" s="7"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D282" s="7"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D283" s="7"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D284" s="7"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D285" s="7"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D286" s="7"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D287" s="7"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D288" s="7"/>
     </row>
   </sheetData>

--- a/Documents/Logs.xlsx
+++ b/Documents/Logs.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A14A1E-EF9B-41FE-9AB0-0C19B6E43700}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -58,16 +59,20 @@
     <t>- Code demo multi layer neural network ( Complete )
 - Design model neural for KLTN ( not complete)</t>
   </si>
+  <si>
+    <t>-Build LoRa board for gateway
+- MongoDB Socket Driver for Server</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -75,7 +80,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -429,22 +434,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D288"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
-    <col min="2" max="2" width="21.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="124.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="21.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="124.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -458,7 +463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -472,7 +477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -486,7 +491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -500,7 +505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -514,7 +519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -528,15 +533,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>43288</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -544,7 +555,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -552,7 +563,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -560,7 +571,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -568,7 +579,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -576,7 +587,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -584,7 +595,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -592,7 +603,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -600,7 +611,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -608,7 +619,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -616,7 +627,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -624,7 +635,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -632,7 +643,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -640,7 +651,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -648,805 +659,805 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="6"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="6"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="6"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="6"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="6"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="6"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="6"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="6"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="6"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" s="6"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" s="6"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="6"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="6"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="6"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="6"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="6"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="6"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="6"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="6"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="6"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="6"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="6"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="6"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="6"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="6"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="6"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="6"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" s="6"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165" s="6"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" s="6"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167" s="6"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168" s="6"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169" s="6"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170" s="6"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" s="6"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" s="6"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" s="6"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174" s="6"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175" s="6"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176" s="6"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" s="6"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178" s="6"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D179" s="6"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180" s="6"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181" s="6"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D182" s="6"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D183" s="6"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D184" s="6"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185" s="6"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D186" s="6"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187" s="6"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D188" s="6"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189" s="6"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D190" s="6"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191" s="6"/>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D192" s="6"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193" s="6"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D194" s="6"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195" s="6"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196" s="6"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D197" s="6"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198" s="6"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D199" s="6"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200" s="6"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D201" s="6"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D202" s="6"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D203" s="6"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204" s="6"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D205" s="6"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D206" s="6"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D207" s="6"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D208" s="6"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D209" s="6"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D210" s="6"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D211" s="6"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D212" s="6"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D213" s="6"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D214" s="6"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D215" s="6"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D216" s="6"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D217" s="6"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D218" s="6"/>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D219" s="6"/>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D220" s="6"/>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D221" s="6"/>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D222" s="6"/>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D223" s="6"/>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D224" s="6"/>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D225" s="6"/>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D226" s="6"/>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D227" s="6"/>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D228" s="6"/>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D229" s="6"/>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D230" s="6"/>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D231" s="6"/>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D232" s="6"/>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D233" s="6"/>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D234" s="6"/>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D235" s="6"/>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D236" s="6"/>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D237" s="6"/>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D238" s="6"/>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D239" s="6"/>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D240" s="6"/>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D241" s="6"/>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D242" s="6"/>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D243" s="6"/>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D244" s="6"/>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D245" s="6"/>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D246" s="6"/>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D247" s="6"/>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D248" s="6"/>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D249" s="6"/>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D250" s="7"/>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D251" s="7"/>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D252" s="7"/>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D253" s="7"/>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D254" s="7"/>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D255" s="7"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D256" s="7"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D257" s="7"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D258" s="7"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D259" s="7"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D260" s="7"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D261" s="7"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D262" s="7"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D263" s="7"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D264" s="7"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D265" s="7"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D266" s="7"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D267" s="7"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D268" s="7"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D269" s="7"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D270" s="7"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D271" s="7"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D272" s="7"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D273" s="7"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D274" s="7"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D275" s="7"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D276" s="7"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D277" s="7"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D278" s="7"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D279" s="7"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D280" s="7"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D281" s="7"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D282" s="7"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D283" s="7"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D284" s="7"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D285" s="7"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D286" s="7"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D287" s="7"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D288" s="7"/>
     </row>
   </sheetData>

--- a/Documents/Logs.xlsx
+++ b/Documents/Logs.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A14A1E-EF9B-41FE-9AB0-0C19B6E43700}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -63,16 +62,19 @@
     <t>-Build LoRa board for gateway
 - MongoDB Socket Driver for Server</t>
   </si>
+  <si>
+    <t>- Neural for weather forecast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -80,7 +82,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -434,22 +436,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="21.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="124.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="2" width="21.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="124.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -463,7 +465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -477,7 +479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -491,7 +493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -505,7 +507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -519,7 +521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -533,7 +535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -547,15 +549,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>43287</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -563,7 +571,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -571,7 +579,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -579,7 +587,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -587,7 +595,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -595,7 +603,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -603,7 +611,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -611,7 +619,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -619,7 +627,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -627,7 +635,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -635,7 +643,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -643,7 +651,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -651,7 +659,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -659,805 +667,805 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="6"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="6"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D83" s="6"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D84" s="6"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D85" s="6"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="6"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D87" s="6"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="6"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D94" s="6"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D95" s="6"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D96" s="6"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="6"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="6"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="6"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D137" s="6"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D139" s="6"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D140" s="6"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D141" s="6"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D145" s="6"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D147" s="6"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D153" s="6"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D158" s="6"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D159" s="6"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D160" s="6"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D161" s="6"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D162" s="6"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D163" s="6"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D164" s="6"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D165" s="6"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D166" s="6"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D167" s="6"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D168" s="6"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D169" s="6"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D170" s="6"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D171" s="6"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D172" s="6"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D173" s="6"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D174" s="6"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D175" s="6"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D176" s="6"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D177" s="6"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D178" s="6"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D179" s="6"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D180" s="6"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D181" s="6"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D182" s="6"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D183" s="6"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D184" s="6"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D185" s="6"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D186" s="6"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D187" s="6"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D188" s="6"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D189" s="6"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D190" s="6"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D191" s="6"/>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D192" s="6"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D193" s="6"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D194" s="6"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D195" s="6"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D196" s="6"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D197" s="6"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D198" s="6"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D199" s="6"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D200" s="6"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D201" s="6"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D202" s="6"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D203" s="6"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D204" s="6"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D205" s="6"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D206" s="6"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D207" s="6"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D208" s="6"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D209" s="6"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D210" s="6"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D211" s="6"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D212" s="6"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D213" s="6"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D214" s="6"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D215" s="6"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D216" s="6"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D217" s="6"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D218" s="6"/>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D219" s="6"/>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D220" s="6"/>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D221" s="6"/>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D222" s="6"/>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D223" s="6"/>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D224" s="6"/>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D225" s="6"/>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D226" s="6"/>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D227" s="6"/>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D228" s="6"/>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D229" s="6"/>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D230" s="6"/>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D231" s="6"/>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D232" s="6"/>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D233" s="6"/>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D234" s="6"/>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D235" s="6"/>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D236" s="6"/>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D237" s="6"/>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D238" s="6"/>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D239" s="6"/>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D240" s="6"/>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D241" s="6"/>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D242" s="6"/>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D243" s="6"/>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D244" s="6"/>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D245" s="6"/>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D246" s="6"/>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D247" s="6"/>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D248" s="6"/>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D249" s="6"/>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D250" s="7"/>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D251" s="7"/>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D252" s="7"/>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D253" s="7"/>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D254" s="7"/>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D255" s="7"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D256" s="7"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D257" s="7"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D258" s="7"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D259" s="7"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D260" s="7"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D261" s="7"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D262" s="7"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D263" s="7"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D264" s="7"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D265" s="7"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D266" s="7"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D267" s="7"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D268" s="7"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D269" s="7"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D270" s="7"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D271" s="7"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D272" s="7"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D273" s="7"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D274" s="7"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D275" s="7"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D276" s="7"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D277" s="7"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D278" s="7"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D279" s="7"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D280" s="7"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D281" s="7"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D282" s="7"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D283" s="7"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D284" s="7"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D285" s="7"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D286" s="7"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D287" s="7"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D288" s="7"/>
     </row>
   </sheetData>

--- a/Documents/Logs.xlsx
+++ b/Documents/Logs.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78D37C3-1DB8-40CC-A669-2DA16D8DB0F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -65,16 +66,19 @@
   <si>
     <t>- Neural for weather forecast</t>
   </si>
+  <si>
+    <t>- Complete first version of MongoSocketDriver_C_Client and complete MongoSocketDriver_Server</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -82,7 +86,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -436,22 +440,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D288"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
-    <col min="2" max="2" width="21.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="124.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="21.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="124.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -465,7 +469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -479,7 +483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -493,7 +497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -507,7 +511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -521,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -535,7 +539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -549,7 +553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -563,15 +567,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>43290</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -579,7 +589,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -587,7 +597,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -595,7 +605,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -603,7 +613,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -611,7 +621,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -619,7 +629,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -627,7 +637,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -635,7 +645,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -643,7 +653,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -651,7 +661,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -659,7 +669,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -667,805 +677,805 @@
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="6"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="6"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="6"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="6"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="6"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="6"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="6"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="6"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="6"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="6"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="6"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="6"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="6"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="6"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="6"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="6"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="6"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="6"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="6"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="6"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" s="6"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" s="6"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="6"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="6"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="6"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="6"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="6"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="6"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="6"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="6"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="6"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="6"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="6"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="6"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="6"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="6"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="6"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="6"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="6"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="6"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="6"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="6"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="6"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="6"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="6"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="6"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="6"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="6"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="6"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="6"/>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="6"/>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="6"/>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="6"/>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="6"/>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="6"/>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="6"/>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="6"/>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="6"/>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="6"/>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="6"/>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="6"/>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="6"/>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="6"/>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D143" s="6"/>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D145" s="6"/>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D146" s="6"/>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D147" s="6"/>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D148" s="6"/>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D149" s="6"/>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D150" s="6"/>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D151" s="6"/>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D152" s="6"/>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D153" s="6"/>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D154" s="6"/>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D155" s="6"/>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D156" s="6"/>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="6"/>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="6"/>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="6"/>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="6"/>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="6"/>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="6"/>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="6"/>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" s="6"/>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D165" s="6"/>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" s="6"/>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167" s="6"/>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D168" s="6"/>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169" s="6"/>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D170" s="6"/>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" s="6"/>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" s="6"/>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" s="6"/>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174" s="6"/>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175" s="6"/>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176" s="6"/>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" s="6"/>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178" s="6"/>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D179" s="6"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D180" s="6"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D181" s="6"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D182" s="6"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D183" s="6"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D184" s="6"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D185" s="6"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D186" s="6"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D187" s="6"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D188" s="6"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D189" s="6"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D190" s="6"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D191" s="6"/>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D192" s="6"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193" s="6"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D194" s="6"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195" s="6"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196" s="6"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D197" s="6"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198" s="6"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D199" s="6"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200" s="6"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D201" s="6"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D202" s="6"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D203" s="6"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204" s="6"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D205" s="6"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D206" s="6"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D207" s="6"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D208" s="6"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D209" s="6"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D210" s="6"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D211" s="6"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D212" s="6"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D213" s="6"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D214" s="6"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D215" s="6"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D216" s="6"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D217" s="6"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D218" s="6"/>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D219" s="6"/>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D220" s="6"/>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D221" s="6"/>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D222" s="6"/>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D223" s="6"/>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D224" s="6"/>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D225" s="6"/>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D226" s="6"/>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D227" s="6"/>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D228" s="6"/>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D229" s="6"/>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D230" s="6"/>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D231" s="6"/>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D232" s="6"/>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D233" s="6"/>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D234" s="6"/>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D235" s="6"/>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D236" s="6"/>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D237" s="6"/>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D238" s="6"/>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D239" s="6"/>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D240" s="6"/>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D241" s="6"/>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D242" s="6"/>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D243" s="6"/>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D244" s="6"/>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D245" s="6"/>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D246" s="6"/>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D247" s="6"/>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D248" s="6"/>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D249" s="6"/>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D250" s="7"/>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D251" s="7"/>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D252" s="7"/>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D253" s="7"/>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D254" s="7"/>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D255" s="7"/>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D256" s="7"/>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D257" s="7"/>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D258" s="7"/>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D259" s="7"/>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D260" s="7"/>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D261" s="7"/>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D262" s="7"/>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D263" s="7"/>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D264" s="7"/>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D265" s="7"/>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D266" s="7"/>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D267" s="7"/>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D268" s="7"/>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D269" s="7"/>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D270" s="7"/>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D271" s="7"/>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D272" s="7"/>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D273" s="7"/>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D274" s="7"/>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D275" s="7"/>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D276" s="7"/>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D277" s="7"/>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D278" s="7"/>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D279" s="7"/>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D280" s="7"/>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D281" s="7"/>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D282" s="7"/>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D283" s="7"/>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D284" s="7"/>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D285" s="7"/>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D286" s="7"/>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D287" s="7"/>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D288" s="7"/>
     </row>
   </sheetData>

--- a/Documents/Logs.xlsx
+++ b/Documents/Logs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78D37C3-1DB8-40CC-A669-2DA16D8DB0F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8F5FD2-453E-48B9-9DE8-0F6DA02FC10B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -68,6 +68,17 @@
   </si>
   <si>
     <t>- Complete first version of MongoSocketDriver_C_Client and complete MongoSocketDriver_Server</t>
+  </si>
+  <si>
+    <t>-Complete schematic of LoRaDriverGateway
+- Complete transmit and receive code of Node and Gateway</t>
+  </si>
+  <si>
+    <t>- Add NodeJS socket client that create MQTT broker, receive weather data from gateway and save it to MongoDB via socket
+- Add LoRa transmit distance test 1 2 3</t>
+  </si>
+  <si>
+    <t>- Complete SolarPanelDriver</t>
   </si>
 </sst>
 </file>
@@ -132,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,6 +170,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -444,7 +458,7 @@
   <dimension ref="A1:D288"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,25 +599,43 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="3">
+        <v>43294</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="3">
+        <v>43295</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="3">
+        <v>43296</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
